--- a/ポートフォリオ用ブログの設計.xlsx
+++ b/ポートフォリオ用ブログの設計.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyam\OneDrive\デスクトップ\ポートフォリオ2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ポートフォリオ2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E328BD3-719F-4751-ABDF-9641F0ADAD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3204B01E-E42B-4145-96CB-1A587C4BF835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
   </bookViews>
   <sheets>
-    <sheet name="テーブル" sheetId="1" r:id="rId1"/>
-    <sheet name="遷移図" sheetId="2" r:id="rId2"/>
+    <sheet name="テーブル" sheetId="2" r:id="rId1"/>
+    <sheet name="遷移図" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>【遷移図】</t>
     <rPh sb="1" eb="4">
@@ -194,6 +194,114 @@
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto_increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACCOUNTSテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLOGSテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar(400)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -201,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,16 +341,39 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -265,13 +396,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,11 +433,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -527,6 +721,36 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41419F81-6E98-4120-A32B-D5A75B835D10}" name="テーブル3" displayName="テーブル3" ref="A4:F7" totalsRowShown="0">
+  <autoFilter ref="A4:F7" xr:uid="{41419F81-6E98-4120-A32B-D5A75B835D10}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EA54FB1F-55D4-47F4-A69C-8DD78F9A8331}" name="Field"/>
+    <tableColumn id="2" xr3:uid="{801BF1BC-5853-47A8-8422-E7E78FE65467}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{16BA0D94-D47B-48FE-BC67-128FEE01BA9F}" name="Null"/>
+    <tableColumn id="4" xr3:uid="{E16BD852-03AF-4BC2-8696-002089C8E9D0}" name="Key"/>
+    <tableColumn id="5" xr3:uid="{C9CC13BC-1197-482F-BEC5-FB81E2819955}" name="Default"/>
+    <tableColumn id="6" xr3:uid="{3BBD0709-37F4-4D06-9923-00C4713E10FD}" name="Extra"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1829BFE5-3AB9-4606-8F04-DD7E6A49762C}" name="テーブル4" displayName="テーブル4" ref="A11:F17" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A11:F17" xr:uid="{1829BFE5-3AB9-4606-8F04-DD7E6A49762C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F7B8FB50-0D8D-47D1-B5C8-33AC0F40006F}" name="Field"/>
+    <tableColumn id="2" xr3:uid="{91141886-D963-4104-A6D9-76C73411C3AF}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{8DDE1755-95F4-4901-9B6F-775E3980E0B6}" name="Null"/>
+    <tableColumn id="4" xr3:uid="{EB35A3FE-8976-4544-AB0E-BCED156CC7C0}" name="Key"/>
+    <tableColumn id="5" xr3:uid="{2A5E2571-0976-4F9A-BACE-7F04D8E37033}" name="Default"/>
+    <tableColumn id="6" xr3:uid="{833C839F-F4EF-445E-8754-82BBF13C6C22}" name="Extra"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,11 +1049,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F91FE3-2A57-40C4-B2C1-958CC81B420D}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2E75FB-1244-476D-A26E-52DC9F753F34}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -839,7 +1288,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -924,25 +1373,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F91FE3-2A57-40C4-B2C1-958CC81B420D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="32.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ポートフォリオ用ブログの設計.xlsx
+++ b/ポートフォリオ用ブログの設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ポートフォリオ2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3204B01E-E42B-4145-96CB-1A587C4BF835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E16B32-3AA7-463C-87B0-6E3025F04D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
   </bookViews>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -450,6 +450,13 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -474,13 +481,6 @@
           <bgColor theme="8"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="8"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,7 +739,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1829BFE5-3AB9-4606-8F04-DD7E6A49762C}" name="テーブル4" displayName="テーブル4" ref="A11:F17" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1829BFE5-3AB9-4606-8F04-DD7E6A49762C}" name="テーブル4" displayName="テーブル4" ref="A11:F17" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A11:F17" xr:uid="{1829BFE5-3AB9-4606-8F04-DD7E6A49762C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F7B8FB50-0D8D-47D1-B5C8-33AC0F40006F}" name="Field"/>

--- a/ポートフォリオ用ブログの設計.xlsx
+++ b/ポートフォリオ用ブログの設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ポートフォリオ2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E16B32-3AA7-463C-87B0-6E3025F04D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4EC07C-0A96-4D95-84DA-23E3D170491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>【遷移図】</t>
     <rPh sb="1" eb="4">
@@ -104,28 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[投稿]をクリックで、writing.phpに送信し、検証後問題なければ送信</t>
-    <rPh sb="1" eb="3">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>confirm.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -302,6 +280,62 @@
   </si>
   <si>
     <t>YES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[編集]をクリック</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認画面へ]をクリックで、writing.phpに送信し、検証後問題なければ送信</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認画面へ]をクリック</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -420,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,6 +755,112 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D119DE-2272-44D2-9510-4442D3BE4CCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2583180" y="426720"/>
+          <a:ext cx="1440180" cy="2232660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5C90DA-E171-4622-9378-AB6643318F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2567940" y="2880360"/>
+          <a:ext cx="1455420" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1052,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F91FE3-2A57-40C4-B2C1-958CC81B420D}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1074,193 +1217,193 @@
     </row>
     <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1277,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2E75FB-1244-476D-A26E-52DC9F753F34}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1306,7 +1449,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
@@ -1314,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
@@ -1322,12 +1465,12 @@
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
@@ -1335,37 +1478,51 @@
         <v>9</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="E10" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.45">
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ポートフォリオ用ブログの設計.xlsx
+++ b/ポートフォリオ用ブログの設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ポートフォリオ2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4EC07C-0A96-4D95-84DA-23E3D170491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911E244-8DFE-4000-A0F6-BBDE55C95D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>【遷移図】</t>
     <rPh sb="1" eb="4">
@@ -336,6 +336,48 @@
     <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WORKSテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>SKILL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINK1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINK2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINK_TEXT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINK_TEXT2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -448,13 +490,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,11 +544,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -882,7 +1056,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1829BFE5-3AB9-4606-8F04-DD7E6A49762C}" name="テーブル4" displayName="テーブル4" ref="A11:F17" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1829BFE5-3AB9-4606-8F04-DD7E6A49762C}" name="テーブル4" displayName="テーブル4" ref="A11:F17" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A11:F17" xr:uid="{1829BFE5-3AB9-4606-8F04-DD7E6A49762C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F7B8FB50-0D8D-47D1-B5C8-33AC0F40006F}" name="Field"/>
@@ -891,6 +1065,21 @@
     <tableColumn id="4" xr3:uid="{EB35A3FE-8976-4544-AB0E-BCED156CC7C0}" name="Key"/>
     <tableColumn id="5" xr3:uid="{2A5E2571-0976-4F9A-BACE-7F04D8E37033}" name="Default"/>
     <tableColumn id="6" xr3:uid="{833C839F-F4EF-445E-8754-82BBF13C6C22}" name="Extra"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}" name="テーブル2" displayName="テーブル2" ref="A21:F30" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A21:F30" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CB960FAB-9D96-49E9-BAF8-D1E392BC9498}" name="Field"/>
+    <tableColumn id="2" xr3:uid="{680BD152-B717-4166-9DC2-46658753EAEC}" name="Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{07A8690E-C14A-4093-A345-332D872643C8}" name="Null" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{15B50EB2-E7DC-45C8-AA11-FE4786E7B697}" name="Key"/>
+    <tableColumn id="5" xr3:uid="{86CFCABA-F1AC-4A36-AB85-F50742CD5230}" name="Default" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{FC9FE0A1-5917-4C71-B24C-8534A51F498B}" name="Extra"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F91FE3-2A57-40C4-B2C1-958CC81B420D}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1392,7 +1581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1403,15 +1592,173 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1420,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2E75FB-1244-476D-A26E-52DC9F753F34}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>

--- a/ポートフォリオ用ブログの設計.xlsx
+++ b/ポートフォリオ用ブログの設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ポートフォリオ2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911E244-8DFE-4000-A0F6-BBDE55C95D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F45268-D4B2-4800-B888-4472BF7CBBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
   <si>
     <t>【遷移図】</t>
     <rPh sb="1" eb="4">
@@ -140,41 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>後必要なもの</t>
-    <rPh sb="0" eb="1">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブログ編集</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブログ削除</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Field</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,6 +343,21 @@
   </si>
   <si>
     <t>LINK_TEXT2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークページ(スタート)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>works.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※login, writing, edit, confirmをそれぞれブログと共有する</t>
+    <rPh sb="39" eb="41">
+      <t>キョウユウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -544,10 +524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,25 +535,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -662,6 +623,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="8"/>
@@ -1037,6 +1017,176 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09732EE0-4086-D9B5-BF34-4FB63ED8FDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4968240" y="586740"/>
+          <a:ext cx="1592580" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310190</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>302570</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 左カーブ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7066BA-77F1-4FD7-A23E-1492E19144BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12621690" flipH="1">
+          <a:off x="5834690" y="463391"/>
+          <a:ext cx="662940" cy="3970844"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDCEDFF-7263-4279-BDFA-6614B6DBF4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2682240" y="518160"/>
+          <a:ext cx="3489960" cy="2225040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1071,14 +1221,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}" name="テーブル2" displayName="テーブル2" ref="A21:F30" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}" name="テーブル2" displayName="テーブル2" ref="A21:F30" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A21:F30" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CB960FAB-9D96-49E9-BAF8-D1E392BC9498}" name="Field"/>
-    <tableColumn id="2" xr3:uid="{680BD152-B717-4166-9DC2-46658753EAEC}" name="Type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{07A8690E-C14A-4093-A345-332D872643C8}" name="Null" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{680BD152-B717-4166-9DC2-46658753EAEC}" name="Type" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{07A8690E-C14A-4093-A345-332D872643C8}" name="Null" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{15B50EB2-E7DC-45C8-AA11-FE4786E7B697}" name="Key"/>
-    <tableColumn id="5" xr3:uid="{86CFCABA-F1AC-4A36-AB85-F50742CD5230}" name="Default" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{86CFCABA-F1AC-4A36-AB85-F50742CD5230}" name="Default" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{FC9FE0A1-5917-4C71-B24C-8534A51F498B}" name="Extra"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1385,7 +1535,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1406,350 +1556,350 @@
     </row>
     <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="F22" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1765,99 +1915,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2E75FB-1244-476D-A26E-52DC9F753F34}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="7" max="7" width="10.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="J2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="R5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="R6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="R8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="R9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="E10" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G16" t="s">
         <v>11</v>
       </c>

--- a/ポートフォリオ用ブログの設計.xlsx
+++ b/ポートフォリオ用ブログの設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ポートフォリオ2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F45268-D4B2-4800-B888-4472BF7CBBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC85A82-48D8-4868-9FB8-D84DBE1B1103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t>【遷移図】</t>
     <rPh sb="1" eb="4">
@@ -358,6 +358,270 @@
     <rPh sb="39" eb="41">
       <t>キョウユウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウパーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML, CSS, JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当サイトを作成するにあたり、モーダルウィンドウをパーツ化してみました。
+画像をクリックすると開き、[×]ボタンもしくは背景をクリックすると閉じるというシンプルなものです。
+css/my_modal.cssとjs/my_modal.jsをローカルにコピーした後、 htmlファイルで親要素にmodalクラス、子要素にimg要素を設定するだけで実装が可能です。</t>
+  </si>
+  <si>
+    <t>./blog.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/miyamoto-ma/simple_modal_js/tree/main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当サイトのブログページにて実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログアプリ(Java)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML, CSS, JavaScript, Java, SQL(H2サーバー)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/miyamoto-ma/java_blog_app</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://awacamp.site/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿波キャン！</t>
+    <rPh sb="0" eb="2">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業訓練(チーム)</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML, CSS, JavaScript, PHP, WordPress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業訓練(個人)</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://freemm.starfree.jp/portfolio-park.blush/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.rakuten.ne.jp/gold/cinderella323/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天シンデレラ</t>
+    <rPh sb="0" eb="2">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前職楽天ショップサイト</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンショク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ラクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java_blog_app.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my_modal.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>awacamp.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>raku_cind.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tokusimapark.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前職で楽天サイトのトップページや特集ページを作成していました。
+楽天独自の規制があり、PHPが使用できなかったため、JavaScriptを使用し、Googleスプレッドシートから商品データを取得しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トクシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ラクテン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業訓練校の卒業制作としてチームで作成しました。
+徳島のキャンプ場情報を中心に徳島の魅力を発信し、来県者の増加を目指しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クンレン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トクシマ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トクシマ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ミリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハッシン</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ライケンシャ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業訓練校でチーム制作前に個人で作成しました。
+徳島中央公園のサイトですが、名前は伏せています。</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>クンレンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トクシマ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaのサーブレットとJSPファイルを使用し、ブログアプリを作成しました。
+アカウントの登録、取得(ログイン), 削除機能。
+ブログの追加、表示、編集、削除機能。
+Ajaxを使用した「いいね」機能や、アカウントの登録済みユーザーネームのチェック機能等を実装しています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -365,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +673,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -491,12 +764,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,8 +806,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1221,8 +1513,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}" name="テーブル2" displayName="テーブル2" ref="A21:F30" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A21:F30" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}" name="テーブル2" displayName="テーブル2" ref="A21:F31" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A21:F31" xr:uid="{459899D8-6ED6-48FB-A973-C05E8ED5E34F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CB960FAB-9D96-49E9-BAF8-D1E392BC9498}" name="Field"/>
     <tableColumn id="2" xr3:uid="{680BD152-B717-4166-9DC2-46658753EAEC}" name="Type" dataDxfId="2"/>
@@ -1532,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F91FE3-2A57-40C4-B2C1-958CC81B420D}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1731,7 +2023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1745,12 +2037,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1769,8 +2061,35 @@
       <c r="F21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1789,8 +2108,35 @@
       <c r="F22" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K22" s="12">
+        <v>1</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1803,8 +2149,35 @@
       <c r="E23" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K23" s="12">
+        <v>1</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1817,8 +2190,35 @@
       <c r="E24" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K24" s="12">
+        <v>1</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1831,8 +2231,35 @@
       <c r="E25" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K25" s="12">
+        <v>1</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1845,24 +2272,51 @@
       <c r="E26" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K26" s="12">
+        <v>1</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>36</v>
@@ -1874,9 +2328,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>36</v>
@@ -1888,9 +2342,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>36</v>
@@ -1902,13 +2356,35 @@
         <v>27</v>
       </c>
     </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="P23" r:id="rId1" display="http://localhost/%E3%83%9D%E3%83%BC%E3%83%88%E3%83%95%E3%82%A9%E3%83%AA%E3%82%AA2023/blog.php" xr:uid="{F11D3300-5287-4D52-921D-BD512BFFB20C}"/>
+    <hyperlink ref="Q23" r:id="rId2" xr:uid="{99739624-56D1-466F-8E0D-C5F8363E0219}"/>
+    <hyperlink ref="P22" r:id="rId3" xr:uid="{841C81E5-D37D-4925-A23B-01B18386FECB}"/>
+    <hyperlink ref="P25" r:id="rId4" xr:uid="{A197920C-F9E2-4190-A32E-717044FA0522}"/>
+    <hyperlink ref="P26" r:id="rId5" xr:uid="{040BDDB6-641C-4BE0-8B28-30969794CCDB}"/>
+    <hyperlink ref="P24" r:id="rId6" xr:uid="{120241D3-2C2B-4BE3-91F1-EB37824EF6DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>

--- a/ポートフォリオ用ブログの設計.xlsx
+++ b/ポートフォリオ用ブログの設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ポートフォリオ2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC85A82-48D8-4868-9FB8-D84DBE1B1103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4513F5-E04D-4424-B8A7-D981DB42F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
   </bookViews>
@@ -772,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,19 +806,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F91FE3-2A57-40C4-B2C1-958CC81B420D}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2061,31 +2058,31 @@
       <c r="F21" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" t="s">
         <v>54</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="S21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2108,31 +2105,31 @@
       <c r="F22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" t="s">
         <v>80</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="R22" t="s">
         <v>65</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2149,31 +2146,31 @@
       <c r="E23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" t="s">
         <v>81</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="R23" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="12" t="s">
+      <c r="S23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2190,31 +2187,31 @@
       <c r="E24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" t="s">
         <v>79</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" t="s">
         <v>61</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="O24" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="Q24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="R24" t="s">
         <v>78</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2231,31 +2228,31 @@
       <c r="E25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="O25" t="s">
         <v>82</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="Q25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" t="s">
         <v>72</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2272,31 +2269,31 @@
       <c r="E26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" t="s">
         <v>74</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" t="s">
         <v>84</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="14" t="s">
+      <c r="Q26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="R26" t="s">
         <v>75</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="12" t="s">
         <v>70</v>
       </c>
     </row>

--- a/ポートフォリオ用ブログの設計.xlsx
+++ b/ポートフォリオ用ブログの設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ポートフォリオ2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4513F5-E04D-4424-B8A7-D981DB42F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516536C0-F2A4-453C-A41E-2E8240B872D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E744AE85-61D4-4765-9396-14637EE1EC27}"/>
   </bookViews>
@@ -772,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,9 +813,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2155,7 +2152,7 @@
       <c r="M23" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" t="s">
         <v>62</v>
       </c>
       <c r="O23" t="s">
@@ -2237,7 +2234,7 @@
       <c r="M25" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" t="s">
         <v>86</v>
       </c>
       <c r="O25" t="s">
@@ -2278,7 +2275,7 @@
       <c r="M26" t="s">
         <v>74</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" t="s">
         <v>87</v>
       </c>
       <c r="O26" t="s">
